--- a/03_PE/006 新增节.xlsx
+++ b/03_PE/006 新增节.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03_PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F07811-CBFC-4C4B-B7B6-881E0BDF964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B98F0-5E54-41F8-8A0A-EF93DB06F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="384">
   <si>
     <t>1、新增一个节表和节</t>
   </si>
@@ -1188,6 +1188,10 @@
   </si>
   <si>
     <t>petool.h!B487</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1352,7 +1356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1414,6 +1418,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3820,7 +3827,7 @@
   <dimension ref="B5:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3874,9 +3881,7 @@
   </sheetPr>
   <dimension ref="A4:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4100,10 +4105,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B3:O73"/>
+  <dimension ref="B3:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4608,7 +4613,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="18" t="s">
         <v>37</v>
@@ -4625,7 +4630,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18" t="s">
@@ -4642,7 +4647,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
@@ -4659,7 +4664,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
@@ -4676,7 +4681,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18" t="s">
@@ -4693,7 +4698,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -4710,7 +4715,7 @@
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -4727,7 +4732,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -4735,19 +4740,20 @@
         <v>372</v>
       </c>
       <c r="F40" s="19"/>
-      <c r="G40" s="19" t="s">
-        <v>382</v>
-      </c>
+      <c r="G40" s="18"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
+      <c r="L40" s="18"/>
       <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="16"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="R40" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -4764,7 +4770,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -4774,14 +4780,16 @@
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="I42" s="21" t="s">
+        <v>383</v>
+      </c>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -4798,7 +4806,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -4815,7 +4823,7 @@
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -4832,7 +4840,7 @@
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
@@ -4849,7 +4857,7 @@
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="18" t="s">
         <v>38</v>
@@ -4866,7 +4874,7 @@
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -5303,8 +5311,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E40:O40" location="petool.h!B476" display="if(Add_NewSection(&amp;file_buffer,file_size,new_section_head,new_section_buffer,new_section_size))" xr:uid="{AC25A19F-E2B5-45C0-9185-D4754D0E080B}"/>
-    <hyperlink ref="G40" location="petool.h!B487" display="petool.h!B487" xr:uid="{0F04D8AD-B533-4F33-B17F-A0B7723B7CF8}"/>
+    <hyperlink ref="E40:R40" location="petool.h!B476" display="if(Add_NewSection(&amp;file_buffer,file_size,new_section_head,new_section_buffer,new_section_size))" xr:uid="{AC25A19F-E2B5-45C0-9185-D4754D0E080B}"/>
+    <hyperlink ref="R40" location="petool.h!B487" display="petool.h!B487" xr:uid="{0F04D8AD-B533-4F33-B17F-A0B7723B7CF8}"/>
     <hyperlink ref="E40:H40" location="petool.h!B487" display="if(Add_NewSection(&amp;file_buffer,file_size,new_section_head,new_section_buffer,new_section_size))" xr:uid="{C515674B-1D43-4417-8859-EE59FA60C3E1}"/>
     <hyperlink ref="F44:L44" location="petool.h!B38" display="WriteToFile(file_buffer,new_pepath,file_size+new_section_size);" xr:uid="{3BE4DAE3-4562-4FEB-BA05-FEE5FCCBCEE3}"/>
     <hyperlink ref="C28:F28" location="petool.h!B23" display="file_size=GetFileSize(pepath);" xr:uid="{164EA682-5DB9-4890-AD34-F4686CA1EA24}"/>
@@ -5322,8 +5330,8 @@
   </sheetPr>
   <dimension ref="B6:P617"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" topLeftCell="A462" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B487" sqref="B487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/03_PE/006 新增节.xlsx
+++ b/03_PE/006 新增节.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03_PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3B98F0-5E54-41F8-8A0A-EF93DB06F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEECE3D-F8A2-4B26-97E2-474DB7F80E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="387">
   <si>
     <t>1、新增一个节表和节</t>
   </si>
@@ -1191,6 +1191,17 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 最后一个节大小+其foa可能 &lt; file_size，节与节之间可以不连续</t>
+  </si>
+  <si>
+    <t>// 新增节，需要保证,新文件大小 &gt;= 新增节大小+其foa</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 节表范围外数据 不会被加载</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3824,10 +3835,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B5:J11"/>
+  <dimension ref="B5:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3860,6 +3871,57 @@
       <c r="G11" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4107,7 +4169,7 @@
   </sheetPr>
   <dimension ref="B3:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
